--- a/sim_log/ex_imbalance_last_layer_weight_change_similarity.xlsx
+++ b/sim_log/ex_imbalance_last_layer_weight_change_similarity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiefeiliu/Documents/FL_Multi_model/sim_log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8D7A7F-CE22-E945-A76E-EB558C5C9A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8153009-6DF7-C448-97F9-87977D96CC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34480" yWindow="500" windowWidth="34480" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Round 0" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,7 +84,129 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -390,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3340,8 +3463,14 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:AE31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="greaterThan">
       <formula>0.7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3352,7 +3481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AE31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6299,6 +6430,17 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:AE31">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6307,7 +6449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AE31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -9254,6 +9398,17 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:AE31">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9262,7 +9417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AE31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12209,6 +12366,17 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:AE31">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -12217,8 +12385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15166,6 +15334,17 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:AE31">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0.7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>